--- a/AI_Safety_Validation_Calculator.xlsx
+++ b/AI_Safety_Validation_Calculator.xlsx
@@ -1,20 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ZZYQJ9/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03CFF4E-3159-EC46-AEF8-14BA8A97ED03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>Metric</t>
   </si>
@@ -83,13 +124,28 @@
   </si>
   <si>
     <t>Industry Baseline (Simple Mean)</t>
+  </si>
+  <si>
+    <t>Posterior</t>
+  </si>
+  <si>
+    <t>priot</t>
+  </si>
+  <si>
+    <t>Posterior Mean</t>
+  </si>
+  <si>
+    <t>Prior hyperparameter</t>
+  </si>
+  <si>
+    <t>Correlation Matrix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +177,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +210,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -171,31 +258,405 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>573550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>27311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>669141</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>81935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3385040-48C4-8C93-5C81-2EE8924FC65B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="573550" y="218494"/>
+          <a:ext cx="7906774" cy="3113549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="57150" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>How</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> to use? </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>User can change the cells with orange values. Please refer to paper for details. Questions": conatct sohrabi.soheil@gmail.com</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Logic:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Posterior</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Formula:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>375674</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1046743</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>46566</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE92C5E9-21A8-C37C-9630-E568A6493119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1932448" y="989780"/>
+          <a:ext cx="5655478" cy="1159797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>368710</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>109246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304002</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D57F281-E0E5-6491-7B92-ED1B0D6D92A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1925484" y="2212257"/>
+          <a:ext cx="6189701" cy="1037850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -233,7 +694,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -267,6 +728,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -301,9 +763,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -476,310 +939,763 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A21:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.5" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="H1" s="1" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1">
+      <c r="J21" s="18">
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="H2" s="1" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2">
+      <c r="J22" s="18">
         <v>0.82</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="H3" s="1" t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3">
+      <c r="J23" s="18">
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D24" s="3"/>
+      <c r="F24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="L24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="17"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F25" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="G25" s="8"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="U25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B26" s="18">
         <v>500</v>
       </c>
-      <c r="C6">
+      <c r="C26" s="18">
         <v>18</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f>C6/B6</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f>1/(1+EXP(-(LN(E6/(1-E6))-($I$2*D6))))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" ref="E26:E35" si="0">C26/B26</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">1/(1+EXP(-(
+  (B26/(B26+50)) * (LN(MAX(0.0001, E26)/(1-MIN(0.9999, E26))) - ($J$22*D26)) +
+  IFERROR(IF(SUM($M26:$V26)&gt;1, (SUM(INDEX($M26:$V26 * TRANSPOSE(LN(MAX(0.0001, $E$26:$E$35)/(1-MIN(0.9999, $E$26:$E$35)))),)) - LN(MAX(0.0001, E26)/(1-MIN(0.9999, E26)))) / (SUM($M26:$V26) - 1), 0), 0) +
+  ((50)/(B26+50)) * LN($J$21/(1-$J$21))
+)))</f>
+        <v>3.7098363245586415E-2</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I6">
-        <f>AVERAGE(F6:F15)</f>
+      <c r="J26" s="9">
+        <f>AVERAGE(F26:F35)</f>
+        <v>2.5299369209642798E-2</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="18">
+        <v>1</v>
+      </c>
+      <c r="N26" s="18">
+        <v>0</v>
+      </c>
+      <c r="O26" s="18">
+        <v>0</v>
+      </c>
+      <c r="P26" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="18">
+        <v>0</v>
+      </c>
+      <c r="R26" s="18">
+        <v>0</v>
+      </c>
+      <c r="S26" s="18">
+        <v>0</v>
+      </c>
+      <c r="T26" s="18">
+        <v>0</v>
+      </c>
+      <c r="U26" s="18">
+        <v>0</v>
+      </c>
+      <c r="V26" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B27" s="18">
         <v>500</v>
       </c>
-      <c r="C7">
+      <c r="C27" s="18">
         <v>17</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f>C7/B7</f>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f>1/(1+EXP(-(LN(E7/(1-E7))-($I$2*D7))))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">1/(1+EXP(-(
+  (B27/(B27+50)) * (LN(MAX(0.0001, E27)/(1-MIN(0.9999, E27))) - ($J$22*D27)) +
+  IFERROR(IF(SUM($M27:$V27)&gt;1, (SUM(INDEX($M27:$V27 * TRANSPOSE(LN(MAX(0.0001, $E$26:$E$35)/(1-MIN(0.9999, $E$26:$E$35)))),)) - LN(MAX(0.0001, E27)/(1-MIN(0.9999, E27)))) / (SUM($M27:$V27) - 1), 0), 0) +
+  ((50)/(B27+50)) * LN($J$21/(1-$J$21))
+)))</f>
+        <v>2.6776653604278982E-2</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I7">
-        <f>1-(1-I6)*(1-$I$3)</f>
+      <c r="J27" s="9">
+        <f>1-(1-J26)*(1-$J$23)</f>
+        <v>7.4034400749160678E-2</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="18">
+        <v>0</v>
+      </c>
+      <c r="N27" s="18">
+        <v>1</v>
+      </c>
+      <c r="O27" s="18">
+        <v>0</v>
+      </c>
+      <c r="P27" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="Q27" s="18">
+        <v>0</v>
+      </c>
+      <c r="R27" s="18">
+        <v>0</v>
+      </c>
+      <c r="S27" s="18">
+        <v>0</v>
+      </c>
+      <c r="T27" s="18">
+        <v>0</v>
+      </c>
+      <c r="U27" s="18">
+        <v>0</v>
+      </c>
+      <c r="V27" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B28" s="18">
         <v>250</v>
       </c>
-      <c r="C8">
+      <c r="C28" s="18">
         <v>34</v>
       </c>
-      <c r="D8">
+      <c r="D28" s="9">
         <v>1.5</v>
       </c>
-      <c r="E8">
-        <f>C8/B8</f>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f>1/(1+EXP(-(LN(E8/(1-E8))-($I$2*D8))))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="E28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">1/(1+EXP(-(
+  (B28/(B28+50)) * (LN(MAX(0.0001, E28)/(1-MIN(0.9999, E28))) - ($J$22*D28)) +
+  IFERROR(IF(SUM($M28:$V28)&gt;1, (SUM(INDEX($M28:$V28 * TRANSPOSE(LN(MAX(0.0001, $E$26:$E$35)/(1-MIN(0.9999, $E$26:$E$35)))),)) - LN(MAX(0.0001, E28)/(1-MIN(0.9999, E28)))) / (SUM($M28:$V28) - 1), 0), 0) +
+  ((50)/(B28+50)) * LN($J$21/(1-$J$21))
+)))</f>
+        <v>4.4937474912925754E-2</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="3">
-        <f>IF(I7&gt;I1, "REJECT (Unsafe)", "PASS (Safe)")</f>
+      <c r="J28" s="10" t="str">
+        <f>IF(J27&gt;J21, "REJECT (Unsafe)", "PASS (Safe)")</f>
+        <v>REJECT (Unsafe)</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="18">
+        <v>0</v>
+      </c>
+      <c r="N28" s="18">
+        <v>0</v>
+      </c>
+      <c r="O28" s="18">
+        <v>1</v>
+      </c>
+      <c r="P28" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="18">
+        <v>0</v>
+      </c>
+      <c r="R28" s="18">
+        <v>0</v>
+      </c>
+      <c r="S28" s="18">
+        <v>0</v>
+      </c>
+      <c r="T28" s="18">
+        <v>0</v>
+      </c>
+      <c r="U28" s="18">
+        <v>0</v>
+      </c>
+      <c r="V28" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B29" s="18">
         <v>250</v>
       </c>
-      <c r="C9">
+      <c r="C29" s="18">
         <v>34</v>
       </c>
-      <c r="D9">
+      <c r="D29" s="9">
         <v>1.5</v>
       </c>
-      <c r="E9">
-        <f>C9/B9</f>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f>1/(1+EXP(-(LN(E9/(1-E9))-($I$2*D9))))</f>
+      <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">1/(1+EXP(-(
+  (B29/(B29+50)) * (LN(MAX(0.0001, E29)/(1-MIN(0.9999, E29))) - ($J$22*D29)) +
+  IFERROR(IF(SUM($M29:$V29)&gt;1, (SUM(INDEX($M29:$V29 * TRANSPOSE(LN(MAX(0.0001, $E$26:$E$35)/(1-MIN(0.9999, $E$26:$E$35)))),)) - LN(MAX(0.0001, E29)/(1-MIN(0.9999, E29)))) / (SUM($M29:$V29) - 1), 0), 0) +
+  ((50)/(B29+50)) * LN($J$21/(1-$J$21))
+)))</f>
+        <v>5.4227214042123599E-3</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="18">
+        <v>0</v>
+      </c>
+      <c r="N29" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="O29" s="18">
+        <v>0</v>
+      </c>
+      <c r="P29" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>0</v>
+      </c>
+      <c r="R29" s="18">
+        <v>0</v>
+      </c>
+      <c r="S29" s="18">
+        <v>0</v>
+      </c>
+      <c r="T29" s="18">
+        <v>0</v>
+      </c>
+      <c r="U29" s="18">
+        <v>0</v>
+      </c>
+      <c r="V29" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B30" s="18">
         <v>500</v>
       </c>
-      <c r="C10">
+      <c r="C30" s="18">
         <v>6</v>
       </c>
-      <c r="D10">
+      <c r="D30" s="9">
         <v>-1</v>
       </c>
-      <c r="E10">
-        <f>C10/B10</f>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f>1/(1+EXP(-(LN(E10/(1-E10))-($I$2*D10))))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="E30" s="9">
+        <f>C30/B30</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">1/(1+EXP(-(
+  (B30/(B30+50)) * (LN(MAX(0.0001, E30)/(1-MIN(0.9999, E30))) - ($J$22*D30)) +
+  IFERROR(IF(SUM($M30:$V30)&gt;1, (SUM(INDEX($M30:$V30 * TRANSPOSE(LN(MAX(0.0001, $E$26:$E$35)/(1-MIN(0.9999, $E$26:$E$35)))),)) - LN(MAX(0.0001, E30)/(1-MIN(0.9999, E30)))) / (SUM($M30:$V30) - 1), 0), 0) +
+  ((50)/(B30+50)) * LN($J$21/(1-$J$21))
+)))</f>
+        <v>2.8414819203786284E-2</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I10">
-        <f>AVERAGE(E6:E15)</f>
+      <c r="J30" s="9">
+        <f>AVERAGE(E26:E35)</f>
+        <v>4.4150000000000009E-2</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="18">
+        <v>0</v>
+      </c>
+      <c r="N30" s="18">
+        <v>0</v>
+      </c>
+      <c r="O30" s="18">
+        <v>0</v>
+      </c>
+      <c r="P30" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="18">
+        <v>1</v>
+      </c>
+      <c r="R30" s="18">
+        <v>0</v>
+      </c>
+      <c r="S30" s="18">
+        <v>0</v>
+      </c>
+      <c r="T30" s="18">
+        <v>0</v>
+      </c>
+      <c r="U30" s="18">
+        <v>0</v>
+      </c>
+      <c r="V30" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B31" s="18">
         <v>500</v>
       </c>
-      <c r="C11">
+      <c r="C31" s="18">
         <v>5</v>
       </c>
-      <c r="D11">
+      <c r="D31" s="9">
         <v>-1</v>
       </c>
-      <c r="E11">
-        <f>C11/B11</f>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f>1/(1+EXP(-(LN(E11/(1-E11))-($I$2*D11))))</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <f>IF(I10&gt;I1, "REJECT", "PASS")</f>
+      <c r="E31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">1/(1+EXP(-(
+  (B31/(B31+50)) * (LN(MAX(0.0001, E31)/(1-MIN(0.9999, E31))) - ($J$22*D31)) +
+  IFERROR(IF(SUM($M31:$V31)&gt;1, (SUM(INDEX($M31:$V31 * TRANSPOSE(LN(MAX(0.0001, $E$26:$E$35)/(1-MIN(0.9999, $E$26:$E$35)))),)) - LN(MAX(0.0001, E31)/(1-MIN(0.9999, E31)))) / (SUM($M31:$V31) - 1), 0), 0) +
+  ((50)/(B31+50)) * LN($J$21/(1-$J$21))
+)))</f>
+        <v>2.4136360918451331E-2</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="11" t="str">
+        <f>IF(J30&gt;J21, "REJECT", "PASS")</f>
+        <v>PASS</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="18">
+        <v>0</v>
+      </c>
+      <c r="N31" s="18">
+        <v>0</v>
+      </c>
+      <c r="O31" s="18">
+        <v>0</v>
+      </c>
+      <c r="P31" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="18">
+        <v>0</v>
+      </c>
+      <c r="R31" s="18">
+        <v>1</v>
+      </c>
+      <c r="S31" s="18">
+        <v>0</v>
+      </c>
+      <c r="T31" s="18">
+        <v>0</v>
+      </c>
+      <c r="U31" s="18">
+        <v>0</v>
+      </c>
+      <c r="V31" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B32" s="18">
         <v>400</v>
       </c>
-      <c r="C12">
+      <c r="C32" s="18">
         <v>8</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f>C12/B12</f>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f>1/(1+EXP(-(LN(E12/(1-E12))-($I$2*D12))))</f>
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="F32" cm="1">
+        <f t="array" ref="F32">1/(1+EXP(-(
+  (B32/(B32+50)) * (LN(MAX(0.0001, E32)/(1-MIN(0.9999, E32))) - ($J$22*D32)) +
+  IFERROR(IF(SUM($M32:$V32)&gt;1, (SUM(INDEX($M32:$V32 * TRANSPOSE(LN(MAX(0.0001, $E$26:$E$35)/(1-MIN(0.9999, $E$26:$E$35)))),)) - LN(MAX(0.0001, E32)/(1-MIN(0.9999, E32)))) / (SUM($M32:$V32) - 1), 0), 0) +
+  ((50)/(B32+50)) * LN($J$21/(1-$J$21))
+)))</f>
+        <v>2.2170869325228104E-2</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="18">
+        <v>0</v>
+      </c>
+      <c r="N32" s="18">
+        <v>0</v>
+      </c>
+      <c r="O32" s="18">
+        <v>0</v>
+      </c>
+      <c r="P32" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="18">
+        <v>0</v>
+      </c>
+      <c r="R32" s="18">
+        <v>0</v>
+      </c>
+      <c r="S32" s="18">
+        <v>1</v>
+      </c>
+      <c r="T32" s="18">
+        <v>0</v>
+      </c>
+      <c r="U32" s="18">
+        <v>0</v>
+      </c>
+      <c r="V32" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B33" s="18">
         <v>400</v>
       </c>
-      <c r="C13">
+      <c r="C33" s="18">
         <v>7</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f>C13/B13</f>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f>1/(1+EXP(-(LN(E13/(1-E13))-($I$2*D13))))</f>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F33" cm="1">
+        <f t="array" ref="F33">1/(1+EXP(-(
+  (B33/(B33+50)) * (LN(MAX(0.0001, E33)/(1-MIN(0.9999, E33))) - ($J$22*D33)) +
+  IFERROR(IF(SUM($M33:$V33)&gt;1, (SUM(INDEX($M33:$V33 * TRANSPOSE(LN(MAX(0.0001, $E$26:$E$35)/(1-MIN(0.9999, $E$26:$E$35)))),)) - LN(MAX(0.0001, E33)/(1-MIN(0.9999, E33)))) / (SUM($M33:$V33) - 1), 0), 0) +
+  ((50)/(B33+50)) * LN($J$21/(1-$J$21))
+)))</f>
+        <v>1.9694690831502552E-2</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="18">
+        <v>0</v>
+      </c>
+      <c r="N33" s="18">
+        <v>0</v>
+      </c>
+      <c r="O33" s="18">
+        <v>0</v>
+      </c>
+      <c r="P33" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="18">
+        <v>0</v>
+      </c>
+      <c r="R33" s="18">
+        <v>0</v>
+      </c>
+      <c r="S33" s="18">
+        <v>0</v>
+      </c>
+      <c r="T33" s="18">
+        <v>1</v>
+      </c>
+      <c r="U33" s="18">
+        <v>0</v>
+      </c>
+      <c r="V33" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B34" s="18">
         <v>400</v>
       </c>
-      <c r="C14">
+      <c r="C34" s="18">
         <v>8</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f>C14/B14</f>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f>1/(1+EXP(-(LN(E14/(1-E14))-($I$2*D14))))</f>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="F34" cm="1">
+        <f t="array" ref="F34">1/(1+EXP(-(
+  (B34/(B34+50)) * (LN(MAX(0.0001, E34)/(1-MIN(0.9999, E34))) - ($J$22*D34)) +
+  IFERROR(IF(SUM($M34:$V34)&gt;1, (SUM(INDEX($M34:$V34 * TRANSPOSE(LN(MAX(0.0001, $E$26:$E$35)/(1-MIN(0.9999, $E$26:$E$35)))),)) - LN(MAX(0.0001, E34)/(1-MIN(0.9999, E34)))) / (SUM($M34:$V34) - 1), 0), 0) +
+  ((50)/(B34+50)) * LN($J$21/(1-$J$21))
+)))</f>
+        <v>2.2170869325228104E-2</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="18">
+        <v>0</v>
+      </c>
+      <c r="N34" s="18">
+        <v>0</v>
+      </c>
+      <c r="O34" s="18">
+        <v>0</v>
+      </c>
+      <c r="P34" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="18">
+        <v>0</v>
+      </c>
+      <c r="R34" s="18">
+        <v>0</v>
+      </c>
+      <c r="S34" s="18">
+        <v>0</v>
+      </c>
+      <c r="T34" s="18">
+        <v>0</v>
+      </c>
+      <c r="U34" s="18">
+        <v>1</v>
+      </c>
+      <c r="V34" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B35" s="18">
         <v>400</v>
       </c>
-      <c r="C15">
+      <c r="C35" s="18">
         <v>8</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f>C15/B15</f>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f>1/(1+EXP(-(LN(E15/(1-E15))-($I$2*D15))))</f>
-        <v>0</v>
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="F35" cm="1">
+        <f t="array" ref="F35">1/(1+EXP(-(
+  (B35/(B35+50)) * (LN(MAX(0.0001, E35)/(1-MIN(0.9999, E35))) - ($J$22*D35)) +
+  IFERROR(IF(SUM($M35:$V35)&gt;1, (SUM(INDEX($M35:$V35 * TRANSPOSE(LN(MAX(0.0001, $E$26:$E$35)/(1-MIN(0.9999, $E$26:$E$35)))),)) - LN(MAX(0.0001, E35)/(1-MIN(0.9999, E35)))) / (SUM($M35:$V35) - 1), 0), 0) +
+  ((50)/(B35+50)) * LN($J$21/(1-$J$21))
+)))</f>
+        <v>2.2170869325228104E-2</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="18">
+        <v>0</v>
+      </c>
+      <c r="N35" s="18">
+        <v>0</v>
+      </c>
+      <c r="O35" s="18">
+        <v>0</v>
+      </c>
+      <c r="P35" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="18">
+        <v>0</v>
+      </c>
+      <c r="R35" s="18">
+        <v>0</v>
+      </c>
+      <c r="S35" s="18">
+        <v>0</v>
+      </c>
+      <c r="T35" s="18">
+        <v>0</v>
+      </c>
+      <c r="U35" s="18">
+        <v>0</v>
+      </c>
+      <c r="V35" s="18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L24:V24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>